--- a/biology/Zoologie/Ambulyx_matti/Ambulyx_matti.xlsx
+++ b/biology/Zoologie/Ambulyx_matti/Ambulyx_matti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambulyx matti est une espèce d'insectes lépidoptères de la famille des Sphingidae, sous-famille des Smerinthinae, tribu des Ambulycini, et du genre Ambulyx.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue en Inde.
 </t>
@@ -568,7 +584,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves se nourrissent sur les espèces du genre Lagerstroemia. 
 </t>
@@ -599,11 +617,47 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Ambulyx matti a été décrite par l'entomologiste allemand Karl Jordan en 1923, sous le nom initial de Oxyambulyx matti[1].
-Synonymie
-Oxyambulyx matti Jordan, 1929 Protonyme</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Ambulyx matti a été décrite par l'entomologiste allemand Karl Jordan en 1923, sous le nom initial de Oxyambulyx matti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ambulyx_matti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambulyx_matti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Oxyambulyx matti Jordan, 1929 Protonyme</t>
         </is>
       </c>
     </row>
